--- a/data/train_log.xlsx
+++ b/data/train_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/jpark440_sundevils_asu_edu/Documents/Desktop/JWP/Research/GNN_RL_JSSP/experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arizonastateu-my.sharepoint.com/personal/jpark440_sundevils_asu_edu/Documents/Documents/GitHub/DGRL/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1466EB55-C154-4A2A-A0B0-F0F990E139AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979C65B7-C112-4631-BF2C-9AFC8159E1D3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1466EB55-C154-4A2A-A0B0-F0F990E139AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEC86A4D-EA5A-4805-9825-B096A46BD706}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DFF6DC56-F320-4E1A-B8AE-CE303B52BA2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DFF6DC56-F320-4E1A-B8AE-CE303B52BA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,11 +437,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6123200-15DC-4B34-9F4C-6185E3F5F7A7}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
@@ -460,7 +459,7 @@
         <v>282.35000610351563</v>
       </c>
       <c r="C2">
-        <v>270.35000610351563</v>
+        <v>283.60000610351563</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -471,7 +470,7 @@
         <v>278.6199951171875</v>
       </c>
       <c r="C3">
-        <v>273.08999633789063</v>
+        <v>258.04000854492188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -482,7 +481,7 @@
         <v>274.239990234375</v>
       </c>
       <c r="C4">
-        <v>272.64999389648438</v>
+        <v>253.2699890136719</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -493,7 +492,7 @@
         <v>271.16998291015619</v>
       </c>
       <c r="C5">
-        <v>263.05999755859381</v>
+        <v>250.33000183105469</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -504,7 +503,7 @@
         <v>261.27999877929688</v>
       </c>
       <c r="C6">
-        <v>269.72998046875</v>
+        <v>244.2200012207031</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -515,7 +514,7 @@
         <v>266.01998901367188</v>
       </c>
       <c r="C7">
-        <v>279.05999755859381</v>
+        <v>236.75999450683591</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -526,7 +525,7 @@
         <v>241.58000183105469</v>
       </c>
       <c r="C8">
-        <v>267.39999389648438</v>
+        <v>228.90998840332031</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -537,7 +536,7 @@
         <v>216.66999816894531</v>
       </c>
       <c r="C9">
-        <v>253.81999206542969</v>
+        <v>227.9700012207031</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -548,7 +547,7 @@
         <v>216.47999572753909</v>
       </c>
       <c r="C10">
-        <v>266.55999755859381</v>
+        <v>228.03999328613281</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -559,7 +558,7 @@
         <v>216.44999694824219</v>
       </c>
       <c r="C11">
-        <v>262.44000244140619</v>
+        <v>218.8999938964844</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -570,7 +569,7 @@
         <v>221.0899963378906</v>
       </c>
       <c r="C12">
-        <v>277.04000854492188</v>
+        <v>225.28999328613281</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -581,7 +580,7 @@
         <v>217.6199951171875</v>
       </c>
       <c r="C13">
-        <v>226.67999267578119</v>
+        <v>220.3999938964844</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -592,7 +591,7 @@
         <v>216.37998962402341</v>
       </c>
       <c r="C14">
-        <v>222.38999938964841</v>
+        <v>236.489990234375</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -603,7 +602,7 @@
         <v>216.83000183105469</v>
       </c>
       <c r="C15">
-        <v>281.3599853515625</v>
+        <v>230.44999694824219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -614,7 +613,7 @@
         <v>217.19000244140619</v>
       </c>
       <c r="C16">
-        <v>233.11000061035159</v>
+        <v>226.50999450683591</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -625,7 +624,7 @@
         <v>219.40998840332031</v>
       </c>
       <c r="C17">
-        <v>221.94000244140619</v>
+        <v>221.53999328613281</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -636,7 +635,7 @@
         <v>216.37998962402341</v>
       </c>
       <c r="C18">
-        <v>220.6499938964844</v>
+        <v>228.22999572753909</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -647,7 +646,7 @@
         <v>217.38999938964841</v>
       </c>
       <c r="C19">
-        <v>219.16999816894531</v>
+        <v>225.40998840332031</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -658,7 +657,7 @@
         <v>216.6199951171875</v>
       </c>
       <c r="C20">
-        <v>219.94000244140619</v>
+        <v>225.36000061035159</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -669,7 +668,7 @@
         <v>216.5299987792969</v>
       </c>
       <c r="C21">
-        <v>221.40998840332031</v>
+        <v>226.72999572753909</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -680,7 +679,7 @@
         <v>217.56999206542969</v>
       </c>
       <c r="C22">
-        <v>220.58000183105469</v>
+        <v>227.03999328613281</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -691,7 +690,7 @@
         <v>215.75</v>
       </c>
       <c r="C23">
-        <v>220.17999267578119</v>
+        <v>227.44999694824219</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -702,7 +701,7 @@
         <v>216.16999816894531</v>
       </c>
       <c r="C24">
-        <v>219.239990234375</v>
+        <v>227.94000244140619</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -713,7 +712,7 @@
         <v>217.7099914550781</v>
       </c>
       <c r="C25">
-        <v>219.31999206542969</v>
+        <v>226.84999084472659</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -724,7 +723,7 @@
         <v>215.12998962402341</v>
       </c>
       <c r="C26">
-        <v>217.13999938964841</v>
+        <v>224.79998779296881</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -735,7 +734,7 @@
         <v>216.15998840332031</v>
       </c>
       <c r="C27">
-        <v>218.489990234375</v>
+        <v>222.81999206542969</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -746,7 +745,7 @@
         <v>215.30999755859381</v>
       </c>
       <c r="C28">
-        <v>218.0899963378906</v>
+        <v>219.80999755859381</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -757,7 +756,7 @@
         <v>217.69999694824219</v>
       </c>
       <c r="C29">
-        <v>220.28999328613281</v>
+        <v>218.78999328613281</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -768,7 +767,7 @@
         <v>215.09999084472659</v>
       </c>
       <c r="C30">
-        <v>219.25999450683591</v>
+        <v>219.61000061035159</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -779,7 +778,7 @@
         <v>215.41999816894531</v>
       </c>
       <c r="C31">
-        <v>219.11000061035159</v>
+        <v>220.7799987792969</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -790,7 +789,7 @@
         <v>216.25999450683591</v>
       </c>
       <c r="C32">
-        <v>218.19999694824219</v>
+        <v>218.87998962402341</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -801,7 +800,7 @@
         <v>215.90998840332031</v>
       </c>
       <c r="C33">
-        <v>217.92999267578119</v>
+        <v>218.30999755859381</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -812,7 +811,7 @@
         <v>216.29998779296881</v>
       </c>
       <c r="C34">
-        <v>216.7200012207031</v>
+        <v>216.75999450683591</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -823,7 +822,7 @@
         <v>216.67999267578119</v>
       </c>
       <c r="C35">
-        <v>216.80999755859381</v>
+        <v>217.56999206542969</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -834,7 +833,7 @@
         <v>215.81999206542969</v>
       </c>
       <c r="C36">
-        <v>218.56999206542969</v>
+        <v>216.13999938964841</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -845,7 +844,7 @@
         <v>215.94999694824219</v>
       </c>
       <c r="C37">
-        <v>220.78999328613281</v>
+        <v>217.9700012207031</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -856,7 +855,7 @@
         <v>216.33000183105469</v>
       </c>
       <c r="C38">
-        <v>220.79998779296881</v>
+        <v>219.78999328613281</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -867,7 +866,7 @@
         <v>217.7699890136719</v>
       </c>
       <c r="C39">
-        <v>220.3999938964844</v>
+        <v>217.42999267578119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -878,7 +877,7 @@
         <v>218</v>
       </c>
       <c r="C40">
-        <v>219.04998779296881</v>
+        <v>217.8399963378906</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -889,7 +888,7 @@
         <v>215.44000244140619</v>
       </c>
       <c r="C41">
-        <v>217.59999084472659</v>
+        <v>217.989990234375</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -900,7 +899,7 @@
         <v>216.09999084472659</v>
       </c>
       <c r="C42">
-        <v>218.9599914550781</v>
+        <v>218.38999938964841</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -911,7 +910,7 @@
         <v>217.0299987792969</v>
       </c>
       <c r="C43">
-        <v>217.47999572753909</v>
+        <v>216.5299987792969</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -922,7 +921,7 @@
         <v>214.489990234375</v>
       </c>
       <c r="C44">
-        <v>218.22999572753909</v>
+        <v>217.88999938964841</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -933,7 +932,7 @@
         <v>216.15998840332031</v>
       </c>
       <c r="C45">
-        <v>217.8399963378906</v>
+        <v>218.41999816894531</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -944,7 +943,7 @@
         <v>218.90998840332031</v>
       </c>
       <c r="C46">
-        <v>223.19999694824219</v>
+        <v>218.15998840332031</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -955,7 +954,7 @@
         <v>215.66999816894531</v>
       </c>
       <c r="C47">
-        <v>220.08000183105469</v>
+        <v>220.50999450683591</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -966,7 +965,7 @@
         <v>217.11000061035159</v>
       </c>
       <c r="C48">
-        <v>219.25</v>
+        <v>219.239990234375</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -977,7 +976,7 @@
         <v>218.42999267578119</v>
       </c>
       <c r="C49">
-        <v>219.7699890136719</v>
+        <v>218.8399963378906</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -988,7 +987,7 @@
         <v>219.04998779296881</v>
       </c>
       <c r="C50">
-        <v>219.8399963378906</v>
+        <v>219.69000244140619</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -999,7 +998,7 @@
         <v>216.09999084472659</v>
       </c>
       <c r="C51">
-        <v>218.90998840332031</v>
+        <v>220.09999084472659</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1010,7 +1009,7 @@
         <v>217.08000183105469</v>
       </c>
       <c r="C52">
-        <v>219.97999572753909</v>
+        <v>218.15998840332031</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1032,7 +1031,7 @@
         <v>216.11000061035159</v>
       </c>
       <c r="C54">
-        <v>219.12998962402341</v>
+        <v>217.6199951171875</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1043,7 +1042,7 @@
         <v>216.69999694824219</v>
       </c>
       <c r="C55">
-        <v>222.05999755859381</v>
+        <v>218.5899963378906</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1054,7 +1053,7 @@
         <v>217.67999267578119</v>
       </c>
       <c r="C56">
-        <v>221.40998840332031</v>
+        <v>218.00999450683591</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1065,7 +1064,7 @@
         <v>219.92999267578119</v>
       </c>
       <c r="C57">
-        <v>220.12998962402341</v>
+        <v>217.67999267578119</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1076,7 +1075,7 @@
         <v>217.15998840332031</v>
       </c>
       <c r="C58">
-        <v>220.75999450683591</v>
+        <v>217.88999938964841</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1087,7 +1086,7 @@
         <v>217.00999450683591</v>
       </c>
       <c r="C59">
-        <v>219.5299987792969</v>
+        <v>220.989990234375</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1098,7 +1097,7 @@
         <v>215.1499938964844</v>
       </c>
       <c r="C60">
-        <v>221.31999206542969</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1109,7 +1108,7 @@
         <v>215.989990234375</v>
       </c>
       <c r="C61">
-        <v>220.33000183105469</v>
+        <v>216.31999206542969</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1120,7 +1119,7 @@
         <v>218.75999450683591</v>
       </c>
       <c r="C62">
-        <v>221.22999572753909</v>
+        <v>218.0899963378906</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1131,7 +1130,7 @@
         <v>217.4599914550781</v>
       </c>
       <c r="C63">
-        <v>220.37998962402341</v>
+        <v>216.54998779296881</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1142,7 +1141,7 @@
         <v>216.239990234375</v>
       </c>
       <c r="C64">
-        <v>220.6499938964844</v>
+        <v>218.00999450683591</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1153,7 +1152,7 @@
         <v>216.0899963378906</v>
       </c>
       <c r="C65">
-        <v>221.54998779296881</v>
+        <v>218.8399963378906</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1164,7 +1163,7 @@
         <v>215.83000183105469</v>
       </c>
       <c r="C66">
-        <v>220.40998840332031</v>
+        <v>218.53999328613281</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1175,7 +1174,7 @@
         <v>216.0299987792969</v>
       </c>
       <c r="C67">
-        <v>225.00999450683591</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1186,7 +1185,7 @@
         <v>216.9599914550781</v>
       </c>
       <c r="C68">
-        <v>221.3999938964844</v>
+        <v>218.54998779296881</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1197,7 +1196,7 @@
         <v>216.59999084472659</v>
       </c>
       <c r="C69">
-        <v>219.1199951171875</v>
+        <v>217.94000244140619</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1208,7 +1207,7 @@
         <v>217.239990234375</v>
       </c>
       <c r="C70">
-        <v>220.61000061035159</v>
+        <v>219.44999694824219</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1219,7 +1218,7 @@
         <v>217.4599914550781</v>
       </c>
       <c r="C71">
-        <v>220.75999450683591</v>
+        <v>219.29998779296881</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1230,7 +1229,7 @@
         <v>217.80999755859381</v>
       </c>
       <c r="C72">
-        <v>220.03999328613281</v>
+        <v>219.08000183105469</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1241,7 +1240,7 @@
         <v>218.7200012207031</v>
       </c>
       <c r="C73">
-        <v>221.90998840332031</v>
+        <v>217.8399963378906</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1252,7 +1251,7 @@
         <v>218</v>
       </c>
       <c r="C74">
-        <v>220.5</v>
+        <v>219.2200012207031</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1263,7 +1262,7 @@
         <v>217.78999328613281</v>
       </c>
       <c r="C75">
-        <v>218.40998840332031</v>
+        <v>219.55999755859381</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1274,7 +1273,7 @@
         <v>218.91999816894531</v>
       </c>
       <c r="C76">
-        <v>218.34999084472659</v>
+        <v>217.7699890136719</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1285,7 +1284,7 @@
         <v>218.75999450683591</v>
       </c>
       <c r="C77">
-        <v>220.2799987792969</v>
+        <v>218.00999450683591</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1296,7 +1295,7 @@
         <v>215.7799987792969</v>
       </c>
       <c r="C78">
-        <v>220.06999206542969</v>
+        <v>219.25</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1307,7 +1306,7 @@
         <v>217.7699890136719</v>
       </c>
       <c r="C79">
-        <v>219.40998840332031</v>
+        <v>216.86000061035159</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1318,7 +1317,7 @@
         <v>219.7099914550781</v>
       </c>
       <c r="C80">
-        <v>218.75999450683591</v>
+        <v>218.3399963378906</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1329,7 +1328,7 @@
         <v>218.47999572753909</v>
       </c>
       <c r="C81">
-        <v>217.28999328613281</v>
+        <v>216.72999572753909</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1340,7 +1339,7 @@
         <v>217.4700012207031</v>
       </c>
       <c r="C82">
-        <v>217.87998962402341</v>
+        <v>219.06999206542969</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1351,7 +1350,7 @@
         <v>216.03999328613281</v>
       </c>
       <c r="C83">
-        <v>221.44000244140619</v>
+        <v>218.63999938964841</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1362,7 +1361,7 @@
         <v>217.1199951171875</v>
       </c>
       <c r="C84">
-        <v>219.15998840332031</v>
+        <v>218.8999938964844</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1373,7 +1372,7 @@
         <v>217.5299987792969</v>
       </c>
       <c r="C85">
-        <v>217.65998840332031</v>
+        <v>218.72999572753909</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1384,7 +1383,7 @@
         <v>217.40998840332031</v>
       </c>
       <c r="C86">
-        <v>218.989990234375</v>
+        <v>215.05999755859381</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1395,7 +1394,7 @@
         <v>216.92999267578119</v>
       </c>
       <c r="C87">
-        <v>218.63999938964841</v>
+        <v>219.0199890136719</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1406,7 +1405,7 @@
         <v>215.12998962402341</v>
       </c>
       <c r="C88">
-        <v>220.3999938964844</v>
+        <v>216.55999755859381</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1417,7 +1416,7 @@
         <v>219.2200012207031</v>
       </c>
       <c r="C89">
-        <v>221.94999694824219</v>
+        <v>218.19000244140619</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1428,7 +1427,7 @@
         <v>217.44999694824219</v>
       </c>
       <c r="C90">
-        <v>222.8699951171875</v>
+        <v>218.7200012207031</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1439,7 +1438,7 @@
         <v>220.3999938964844</v>
       </c>
       <c r="C91">
-        <v>221.239990234375</v>
+        <v>218.5199890136719</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1450,7 +1449,7 @@
         <v>219.0899963378906</v>
       </c>
       <c r="C92">
-        <v>225.50999450683591</v>
+        <v>217.69000244140619</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1461,7 +1460,7 @@
         <v>218.56999206542969</v>
       </c>
       <c r="C93">
-        <v>224.7699890136719</v>
+        <v>218.33000183105469</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1472,7 +1471,7 @@
         <v>216.989990234375</v>
       </c>
       <c r="C94">
-        <v>224.03999328613281</v>
+        <v>218.1199951171875</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1483,7 +1482,7 @@
         <v>220.44000244140619</v>
       </c>
       <c r="C95">
-        <v>223.88999938964841</v>
+        <v>217.2699890136719</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1494,7 +1493,7 @@
         <v>218.67999267578119</v>
       </c>
       <c r="C96">
-        <v>222.80999755859381</v>
+        <v>217.5299987792969</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1505,7 +1504,7 @@
         <v>216.38999938964841</v>
       </c>
       <c r="C97">
-        <v>221.62998962402341</v>
+        <v>217.29998779296881</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1516,7 +1515,7 @@
         <v>218.0199890136719</v>
       </c>
       <c r="C98">
-        <v>220.5299987792969</v>
+        <v>216.54998779296881</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1527,7 +1526,7 @@
         <v>219.12998962402341</v>
       </c>
       <c r="C99">
-        <v>220.19999694824219</v>
+        <v>216.06999206542969</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1538,7 +1537,7 @@
         <v>218.55999755859381</v>
       </c>
       <c r="C100">
-        <v>222.739990234375</v>
+        <v>217.55999755859381</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1549,7 +1548,7 @@
         <v>220.59999084472659</v>
       </c>
       <c r="C101">
-        <v>220.91999816894531</v>
+        <v>218.34999084472659</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1564,7 @@
       <selection sqref="A1:C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
@@ -2684,3329 +2683,3328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FFA4C-DFB8-4D41-B52B-82156FA4F0E3}">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>184.28</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>195.41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>183.19</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>166.57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>172.48</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>167.36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>186.62</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>168.28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>177.63</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>167.75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>171.48</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>166.16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>173.65</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>168.56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>195.91</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>167.15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>175.39</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>167.52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>180.24</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>166.08</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>176.71</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>165.24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>11000</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>173.31</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>165.32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>12000</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>171.01</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>165.61</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>13000</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>171.92</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>170.29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>14000</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <v>172.06</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>165.85</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>15000</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <v>172.97</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>171.63</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>16000</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <v>189.76</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>166.24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>17000</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <v>172.6</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>165.17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>18000</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <v>171.51</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>165.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>19000</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <v>171.55</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>165.79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>20000</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <v>174.72</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>164.74</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>21000</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <v>175.98</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>165.52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>22000</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <v>173.42</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>167.61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>23000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <v>173.53</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>167.85</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>24000</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <v>171.15</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>167.07</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>25000</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <v>169.68</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>217.19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>26000</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <v>170.4</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>164.15</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>27000</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <v>178.37</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>165.62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>28000</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <v>175.77</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>166.94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>29000</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <v>169.46</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>193.32</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>30000</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <v>171.74</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>167.83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>31000</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <v>168.77</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>164.5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>32000</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <v>169.9</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>167.33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>33000</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <v>171.55</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>165.17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>34000</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <v>170.56</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>164.12</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>35000</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <v>169.95</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>171.4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>36000</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <v>170.31</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>162.29</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>37000</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <v>175.29</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>164.09</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>38000</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <v>170.52</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>164.7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>39000</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <v>188.18</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>180.34</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>40000</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <v>176.02</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>166.85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>41000</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <v>176.52</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>163.66999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>42000</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <v>178.6</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>165.39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>43000</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <v>176.48</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>178.24</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>44000</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <v>174.25</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>166.51</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>45000</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <v>180.83</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>167.78</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>46000</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <v>177.67</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>211.2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>47000</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <v>175.86</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>166.71</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>48000</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <v>188.85</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>168.59</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>49000</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <v>188.85</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>177.21</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>50000</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <v>185.98</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>174.01</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>51000</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <v>181.36</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>170.36</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>52000</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <v>183.09</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>182.33</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>53000</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <v>179.61</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>174.46</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>54000</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <v>173.39</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>162.22</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="2">
+      <c r="A57">
         <v>55000</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <v>169.96</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>190.67</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>56000</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <v>169.95</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>196.09</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>57000</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <v>171.32</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>165.69</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="2">
+      <c r="A60">
         <v>58000</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <v>169.06</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>186.34</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>59000</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <v>169.5</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>164.45</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>60000</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <v>170.68</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>183.93</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>61000</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <v>170.63</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>165.47</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2">
+      <c r="A64">
         <v>62000</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <v>170.05</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>165.7</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>63000</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <v>170.27</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>166.63</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="2">
+      <c r="A66">
         <v>64000</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <v>169.71</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>171.28</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>65000</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <v>173.45</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>176.59</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>66000</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <v>184.98</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>169.12</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="2">
+      <c r="A69">
         <v>67000</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <v>175.9</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>167.05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>68000</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <v>174.31</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>162.80000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>69000</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <v>174.8</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>166.09</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>70000</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <v>170.34</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>188.08</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>71000</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <v>169.7</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>164.52</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="2">
+      <c r="A74">
         <v>72000</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <v>170.91</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>167.47</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>73000</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <v>169.88</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>164.12</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="2">
+      <c r="A76">
         <v>74000</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <v>169.94</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>184.78</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="2">
+      <c r="A77">
         <v>75000</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <v>167.89</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>192.81</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="2">
+      <c r="A78">
         <v>76000</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <v>167.76</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>164.98</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="2">
+      <c r="A79">
         <v>77000</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <v>175.75</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>172.97</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2">
+      <c r="A80">
         <v>78000</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <v>170.27</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>182.94</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="2">
+      <c r="A81">
         <v>79000</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <v>167.57</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>183.21</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2">
+      <c r="A82">
         <v>80000</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <v>170.58</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>170.95</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>81000</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <v>167.85</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>166.87</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="2">
+      <c r="A84">
         <v>82000</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <v>167.45</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>181.44</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="2">
+      <c r="A85">
         <v>83000</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <v>169.03</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>170.64</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2">
+      <c r="A86">
         <v>84000</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <v>168.64</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>169.75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="2">
+      <c r="A87">
         <v>85000</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <v>169.17</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>177.99</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="2">
+      <c r="A88">
         <v>86000</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <v>168.05</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>165.96</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2">
+      <c r="A89">
         <v>87000</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <v>167.58</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>166.27</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="2">
+      <c r="A90">
         <v>88000</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <v>168.37</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>175.96</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2">
+      <c r="A91">
         <v>89000</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <v>170.67</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>173.88</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>90000</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <v>170.69</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>170.22</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2">
+      <c r="A93">
         <v>91000</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <v>168.73</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>180.46</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2">
+      <c r="A94">
         <v>92000</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <v>168.21</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>177.32</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2">
+      <c r="A95">
         <v>93000</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <v>168.82</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>168.65</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="2">
+      <c r="A96">
         <v>94000</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <v>168.64</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>170.75</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2">
+      <c r="A97">
         <v>95000</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <v>191.5</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>166.63</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2">
+      <c r="A98">
         <v>96000</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <v>193.15</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>166.11</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="2">
+      <c r="A99">
         <v>97000</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <v>179.65</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>171.65</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="2">
+      <c r="A100">
         <v>98000</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <v>183.76</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>165.32</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="2">
+      <c r="A101">
         <v>99000</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <v>172.88</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>168.18</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="2">
+      <c r="A102">
         <v>100000</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <v>170.1</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>173.04</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2">
+      <c r="A103">
         <v>101000</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <v>167.15</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>180.17</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="2">
+      <c r="A104">
         <v>102000</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>167.81</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>163.91</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2">
+      <c r="A105">
         <v>103000</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>168.05</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>164.21</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="2">
+      <c r="A106">
         <v>104000</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>167.61</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>165.89</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2">
+      <c r="A107">
         <v>105000</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <v>167.68</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>165.23</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2">
+      <c r="A108">
         <v>106000</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <v>169.57</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>164.89</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2">
+      <c r="A109">
         <v>107000</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <v>167.37</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>164.93</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2">
+      <c r="A110">
         <v>108000</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <v>171.29</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>166.26</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="2">
+      <c r="A111">
         <v>109000</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <v>169.34</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>170.27</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2">
+      <c r="A112">
         <v>110000</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <v>173.08</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>172.24</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2">
+      <c r="A113">
         <v>111000</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <v>178.34</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2">
+      <c r="A114">
         <v>112000</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <v>181.07</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>172.47</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="2">
+      <c r="A115">
         <v>113000</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <v>172.01</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115">
         <v>165.81</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="2">
+      <c r="A116">
         <v>114000</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <v>182.61</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116">
         <v>168.53</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="2">
+      <c r="A117">
         <v>115000</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <v>182.24</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117">
         <v>166.39</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2">
+      <c r="A118">
         <v>116000</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <v>175.34</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118">
         <v>172.85</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2">
+      <c r="A119">
         <v>117000</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>187.57</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>166.02</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2">
+      <c r="A120">
         <v>118000</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>173.58</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>170.46</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="2">
+      <c r="A121">
         <v>119000</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <v>170.62</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121">
         <v>163.86</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="2">
+      <c r="A122">
         <v>120000</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <v>171.81</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122">
         <v>163.93</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="2">
+      <c r="A123">
         <v>121000</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <v>167.59</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123">
         <v>166.03</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2">
+      <c r="A124">
         <v>122000</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <v>171.79</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124">
         <v>162.6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2">
+      <c r="A125">
         <v>123000</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <v>177.17</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125">
         <v>167.67</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="2">
+      <c r="A126">
         <v>124000</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <v>171.35</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126">
         <v>179.39</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="2">
+      <c r="A127">
         <v>125000</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <v>179.15</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127">
         <v>181.37</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2">
+      <c r="A128">
         <v>126000</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <v>180.78</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128">
         <v>165.38</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2">
+      <c r="A129">
         <v>127000</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <v>181.85</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129">
         <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2">
+      <c r="A130">
         <v>128000</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <v>177.18</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130">
         <v>165.08</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2">
+      <c r="A131">
         <v>129000</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <v>178.95</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131">
         <v>163.58000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="2">
+      <c r="A132">
         <v>130000</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <v>196.82</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132">
         <v>163.69999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="2">
+      <c r="A133">
         <v>131000</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <v>176.61</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133">
         <v>163.71</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="2">
+      <c r="A134">
         <v>132000</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <v>180.48</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134">
         <v>163.44</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2">
+      <c r="A135">
         <v>133000</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <v>170.1</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135">
         <v>163.37</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2">
+      <c r="A136">
         <v>134000</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <v>171.65</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136">
         <v>167.98</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2">
+      <c r="A137">
         <v>135000</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <v>192.65</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137">
         <v>165.61</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="2">
+      <c r="A138">
         <v>136000</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <v>172.89</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138">
         <v>166.99</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="2">
+      <c r="A139">
         <v>137000</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <v>181.54</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139">
         <v>162.66999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2">
+      <c r="A140">
         <v>138000</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <v>197.95</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140">
         <v>167.81</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2">
+      <c r="A141">
         <v>139000</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <v>185.91</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141">
         <v>174.31</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="2">
+      <c r="A142">
         <v>140000</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <v>183.27</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142">
         <v>167.51</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="2">
+      <c r="A143">
         <v>141000</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <v>179.84</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143">
         <v>169.2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2">
+      <c r="A144">
         <v>142000</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <v>173.26</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144">
         <v>167.61</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="2">
+      <c r="A145">
         <v>143000</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <v>190.81</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145">
         <v>170.95</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2">
+      <c r="A146">
         <v>144000</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <v>175.19</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146">
         <v>172.75</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="2">
+      <c r="A147">
         <v>145000</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <v>172.48</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147">
         <v>172.33</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="2">
+      <c r="A148">
         <v>146000</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <v>189.77</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148">
         <v>174.83</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="2">
+      <c r="A149">
         <v>147000</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <v>175.33</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149">
         <v>167.8</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="2">
+      <c r="A150">
         <v>148000</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <v>186.71</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150">
         <v>167.27</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="2">
+      <c r="A151">
         <v>149000</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <v>180.64</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151">
         <v>162.9</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="2">
+      <c r="A152">
         <v>150000</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <v>176.51</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152">
         <v>165.02</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2">
+      <c r="A153">
         <v>151000</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <v>175.53</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153">
         <v>165.8</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2">
+      <c r="A154">
         <v>152000</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <v>176.78</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154">
         <v>166.39</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="2">
+      <c r="A155">
         <v>153000</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <v>189.79</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155">
         <v>165.75</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2">
+      <c r="A156">
         <v>154000</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <v>190.61</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156">
         <v>163.54</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="2">
+      <c r="A157">
         <v>155000</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <v>182.18</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157">
         <v>164.59</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2">
+      <c r="A158">
         <v>156000</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <v>176.32</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158">
         <v>166.83</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2">
+      <c r="A159">
         <v>157000</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <v>173.62</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159">
         <v>172.51</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2">
+      <c r="A160">
         <v>158000</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <v>170.19</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160">
         <v>164.26</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2">
+      <c r="A161">
         <v>159000</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <v>170.74</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161">
         <v>169.33</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="2">
+      <c r="A162">
         <v>160000</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <v>172.4</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162">
         <v>168.24</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="2">
+      <c r="A163">
         <v>161000</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <v>172.06</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163">
         <v>168.04</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="2">
+      <c r="A164">
         <v>162000</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <v>191.57</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164">
         <v>164.84</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2">
+      <c r="A165">
         <v>163000</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <v>195.43</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165">
         <v>167.8</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="2">
+      <c r="A166">
         <v>164000</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <v>175.42</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166">
         <v>174.54</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="2">
+      <c r="A167">
         <v>165000</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <v>175.44</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167">
         <v>168.23</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="2">
+      <c r="A168">
         <v>166000</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <v>170.62</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168">
         <v>168.15</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="2">
+      <c r="A169">
         <v>167000</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <v>203.48</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169">
         <v>175.97</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="2">
+      <c r="A170">
         <v>168000</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <v>185.86</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>168.29</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="2">
+      <c r="A171">
         <v>169000</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <v>179.31</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>170.38</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="2">
+      <c r="A172">
         <v>170000</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <v>177.72</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>177.91</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="2">
+      <c r="A173">
         <v>171000</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <v>174.46</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>171.72</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="2">
+      <c r="A174">
         <v>172000</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <v>176.14</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174">
         <v>172.76</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="2">
+      <c r="A175">
         <v>173000</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <v>186.67</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175">
         <v>172.99</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="2">
+      <c r="A176">
         <v>174000</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <v>182.9</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176">
         <v>172.61</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="2">
+      <c r="A177">
         <v>175000</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <v>173.06</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177">
         <v>168.09</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="2">
+      <c r="A178">
         <v>176000</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <v>171.78</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178">
         <v>168.14</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="2">
+      <c r="A179">
         <v>177000</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <v>174.81</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179">
         <v>169.57</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="2">
+      <c r="A180">
         <v>178000</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <v>171.73</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <v>167</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="2">
+      <c r="A181">
         <v>179000</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <v>176.03</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <v>166.3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="2">
+      <c r="A182">
         <v>180000</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <v>173.94</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <v>164.54</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="2">
+      <c r="A183">
         <v>181000</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <v>175.94</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183">
         <v>164.05</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="2">
+      <c r="A184">
         <v>182000</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <v>173.65</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184">
         <v>162.47</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="2">
+      <c r="A185">
         <v>183000</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <v>173.66</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185">
         <v>161.76</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="2">
+      <c r="A186">
         <v>184000</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <v>175.21</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186">
         <v>163.29</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="2">
+      <c r="A187">
         <v>185000</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <v>176.92</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187">
         <v>164.39</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="2">
+      <c r="A188">
         <v>186000</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <v>175.6</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188">
         <v>170.63</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="2">
+      <c r="A189">
         <v>187000</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <v>175.92</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189">
         <v>164.23</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="2">
+      <c r="A190">
         <v>188000</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <v>177.81</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190">
         <v>166.2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="2">
+      <c r="A191">
         <v>189000</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <v>176.68</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191">
         <v>164.08</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="2">
+      <c r="A192">
         <v>190000</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <v>186.32</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192">
         <v>163.74</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="2">
+      <c r="A193">
         <v>191000</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <v>176.55</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193">
         <v>164.99</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="2">
+      <c r="A194">
         <v>192000</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <v>178.24</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194">
         <v>167.72</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="2">
+      <c r="A195">
         <v>193000</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <v>180.18</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195">
         <v>163.19</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="2">
+      <c r="A196">
         <v>194000</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <v>175.91</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196">
         <v>167.32</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="2">
+      <c r="A197">
         <v>195000</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <v>177.75</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197">
         <v>172.13</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="2">
+      <c r="A198">
         <v>196000</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <v>175.95</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198">
         <v>166.9</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="2">
+      <c r="A199">
         <v>197000</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <v>174.91</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199">
         <v>165.11</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="2">
+      <c r="A200">
         <v>198000</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <v>174.34</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200">
         <v>168.05</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="2">
+      <c r="A201">
         <v>199000</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <v>172.72</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201">
         <v>169.26</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="2">
+      <c r="A202">
         <v>200000</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <v>173.25</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202">
         <v>167.25</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="2">
+      <c r="A203">
         <v>201000</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <v>171.68</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203">
         <v>165.58</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="2">
+      <c r="A204">
         <v>202000</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <v>177.65</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204">
         <v>167.91</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="2">
+      <c r="A205">
         <v>203000</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <v>179.34</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205">
         <v>166.96</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="2">
+      <c r="A206">
         <v>204000</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <v>173.14</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206">
         <v>164.84</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="2">
+      <c r="A207">
         <v>205000</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <v>173.04</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207">
         <v>166.32</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="2">
+      <c r="A208">
         <v>206000</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <v>171.59</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208">
         <v>164.95</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="2">
+      <c r="A209">
         <v>207000</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <v>170.9</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209">
         <v>167.43</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="2">
+      <c r="A210">
         <v>208000</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <v>171.72</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210">
         <v>168.51</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="2">
+      <c r="A211">
         <v>209000</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <v>170.46</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211">
         <v>167.8</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="2">
+      <c r="A212">
         <v>210000</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <v>172.48</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212">
         <v>168.23</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="2">
+      <c r="A213">
         <v>211000</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213">
         <v>174.47</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213">
         <v>167.75</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="2">
+      <c r="A214">
         <v>212000</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214">
         <v>173.2</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214">
         <v>168.24</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="2">
+      <c r="A215">
         <v>213000</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215">
         <v>176.29</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215">
         <v>168.93</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="2">
+      <c r="A216">
         <v>214000</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216">
         <v>174.9</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216">
         <v>167.51</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="2">
+      <c r="A217">
         <v>215000</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217">
         <v>178.35</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217">
         <v>166.09</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="2">
+      <c r="A218">
         <v>216000</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218">
         <v>177.24</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218">
         <v>164.83</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="2">
+      <c r="A219">
         <v>217000</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219">
         <v>180.96</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219">
         <v>169.1</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="2">
+      <c r="A220">
         <v>218000</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220">
         <v>175</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220">
         <v>167.11</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221" s="2">
+      <c r="A221">
         <v>219000</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221">
         <v>175.97</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221">
         <v>168.36</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222" s="2">
+      <c r="A222">
         <v>220000</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222">
         <v>176.85</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222">
         <v>166.46</v>
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223" s="2">
+      <c r="A223">
         <v>221000</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223">
         <v>179.42</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223">
         <v>165.16</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224" s="2">
+      <c r="A224">
         <v>222000</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224">
         <v>184.83</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224">
         <v>166.26</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="2">
+      <c r="A225">
         <v>223000</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225">
         <v>181.71</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225">
         <v>163.87</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226" s="2">
+      <c r="A226">
         <v>224000</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226">
         <v>183.05</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226">
         <v>163.08000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227" s="2">
+      <c r="A227">
         <v>225000</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227">
         <v>175.8</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227">
         <v>164.86</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="2">
+      <c r="A228">
         <v>226000</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228">
         <v>180.37</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228">
         <v>165.23</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="2">
+      <c r="A229">
         <v>227000</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229">
         <v>181.21</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229">
         <v>168.76</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="2">
+      <c r="A230">
         <v>228000</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230">
         <v>181.54</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230">
         <v>166.85</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="2">
+      <c r="A231">
         <v>229000</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231">
         <v>185.17</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231">
         <v>167.92</v>
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232" s="2">
+      <c r="A232">
         <v>230000</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232">
         <v>180.82</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232">
         <v>168.85</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="2">
+      <c r="A233">
         <v>231000</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233">
         <v>183.06</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233">
         <v>171.06</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="2">
+      <c r="A234">
         <v>232000</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234">
         <v>186.15</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234">
         <v>169.18</v>
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="2">
+      <c r="A235">
         <v>233000</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235">
         <v>182.69</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235">
         <v>171.48</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="2">
+      <c r="A236">
         <v>234000</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236">
         <v>189.23</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236">
         <v>172.39</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="2">
+      <c r="A237">
         <v>235000</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237">
         <v>188.34</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237">
         <v>174.34</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238" s="2">
+      <c r="A238">
         <v>236000</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238">
         <v>183.66</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238">
         <v>172.03</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="2">
+      <c r="A239">
         <v>237000</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239">
         <v>176.54</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239">
         <v>172.21</v>
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="2">
+      <c r="A240">
         <v>238000</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240">
         <v>174.18</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240">
         <v>171.23</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="2">
+      <c r="A241">
         <v>239000</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241">
         <v>179.11</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241">
         <v>168.04</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242" s="2">
+      <c r="A242">
         <v>240000</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242">
         <v>177.42</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242">
         <v>169.24</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243" s="2">
+      <c r="A243">
         <v>241000</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243">
         <v>175.81</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243">
         <v>169.96</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="2">
+      <c r="A244">
         <v>242000</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244">
         <v>174.16</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244">
         <v>168.92</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="2">
+      <c r="A245">
         <v>243000</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245">
         <v>174.06</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245">
         <v>170.03</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="2">
+      <c r="A246">
         <v>244000</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246">
         <v>173.36</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246">
         <v>175.9</v>
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247" s="2">
+      <c r="A247">
         <v>245000</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <v>172.86</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247">
         <v>173.78</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248" s="2">
+      <c r="A248">
         <v>246000</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248">
         <v>171.91</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248">
         <v>171.76</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="2">
+      <c r="A249">
         <v>247000</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <v>171.1</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249">
         <v>173.59</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="2">
+      <c r="A250">
         <v>248000</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250">
         <v>170.69</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250">
         <v>169.71</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="2">
+      <c r="A251">
         <v>249000</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251">
         <v>170.13</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251">
         <v>170.05</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="2">
+      <c r="A252">
         <v>250000</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252">
         <v>171.79</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252">
         <v>170.13</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="2">
+      <c r="A253">
         <v>251000</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253">
         <v>173.29</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253">
         <v>170.5</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="2">
+      <c r="A254">
         <v>252000</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <v>172.82</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254">
         <v>168.18</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="2">
+      <c r="A255">
         <v>253000</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255">
         <v>172.66</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255">
         <v>167.64</v>
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="2">
+      <c r="A256">
         <v>254000</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256">
         <v>174.27</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256">
         <v>169.78</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="2">
+      <c r="A257">
         <v>255000</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257">
         <v>172.33</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257">
         <v>168.05</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258" s="2">
+      <c r="A258">
         <v>256000</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258">
         <v>176.48</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258">
         <v>169.25</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="2">
+      <c r="A259">
         <v>257000</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259">
         <v>179.16</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259">
         <v>169.46</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="2">
+      <c r="A260">
         <v>258000</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260">
         <v>174.37</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260">
         <v>168.29</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="2">
+      <c r="A261">
         <v>259000</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261">
         <v>172.36</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261">
         <v>169.69</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="2">
+      <c r="A262">
         <v>260000</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262">
         <v>174.44</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262">
         <v>168.31</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="2">
+      <c r="A263">
         <v>261000</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263">
         <v>175.62</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263">
         <v>169.08</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="2">
+      <c r="A264">
         <v>262000</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <v>177.98</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264">
         <v>168.78</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="2">
+      <c r="A265">
         <v>263000</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265">
         <v>176.52</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265">
         <v>168.32</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="2">
+      <c r="A266">
         <v>264000</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266">
         <v>176.51</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266">
         <v>167.91</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="2">
+      <c r="A267">
         <v>265000</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267">
         <v>172.27</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267">
         <v>168.91</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="2">
+      <c r="A268">
         <v>266000</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268">
         <v>174.5</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268">
         <v>168.82</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269" s="2">
+      <c r="A269">
         <v>267000</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269">
         <v>171.94</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269">
         <v>167.96</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="2">
+      <c r="A270">
         <v>268000</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270">
         <v>171.89</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270">
         <v>169.81</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271" s="2">
+      <c r="A271">
         <v>269000</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271">
         <v>172</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271">
         <v>168.91</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="2">
+      <c r="A272">
         <v>270000</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272">
         <v>173.09</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272">
         <v>168.89</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="2">
+      <c r="A273">
         <v>271000</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <v>175.55</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273">
         <v>167.9</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="2">
+      <c r="A274">
         <v>272000</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <v>175.32</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274">
         <v>167.68</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275" s="2">
+      <c r="A275">
         <v>273000</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <v>175.93</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275">
         <v>168.04</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276" s="2">
+      <c r="A276">
         <v>274000</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276">
         <v>171.58</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276">
         <v>167.12</v>
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277" s="2">
+      <c r="A277">
         <v>275000</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277">
         <v>170.77</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277">
         <v>166.56</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="2">
+      <c r="A278">
         <v>276000</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278">
         <v>170.44</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278">
         <v>166.83</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="2">
+      <c r="A279">
         <v>277000</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279">
         <v>170.22</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279">
         <v>165.62</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="2">
+      <c r="A280">
         <v>278000</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280">
         <v>169.18</v>
       </c>
-      <c r="C280" s="2">
+      <c r="C280">
         <v>167.42</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="2">
+      <c r="A281">
         <v>279000</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281">
         <v>169.32</v>
       </c>
-      <c r="C281" s="2">
+      <c r="C281">
         <v>165.31</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="2">
+      <c r="A282">
         <v>280000</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282">
         <v>171.23</v>
       </c>
-      <c r="C282" s="2">
+      <c r="C282">
         <v>167.5</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="2">
+      <c r="A283">
         <v>281000</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283">
         <v>171.09</v>
       </c>
-      <c r="C283" s="2">
+      <c r="C283">
         <v>167.11</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="2">
+      <c r="A284">
         <v>282000</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284">
         <v>173.7</v>
       </c>
-      <c r="C284" s="2">
+      <c r="C284">
         <v>166.96</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285" s="2">
+      <c r="A285">
         <v>283000</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285">
         <v>172.1</v>
       </c>
-      <c r="C285" s="2">
+      <c r="C285">
         <v>167.84</v>
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286" s="2">
+      <c r="A286">
         <v>284000</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286">
         <v>171.18</v>
       </c>
-      <c r="C286" s="2">
+      <c r="C286">
         <v>168.58</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="2">
+      <c r="A287">
         <v>285000</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287">
         <v>171.13</v>
       </c>
-      <c r="C287" s="2">
+      <c r="C287">
         <v>167.75</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="2">
+      <c r="A288">
         <v>286000</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288">
         <v>171.74</v>
       </c>
-      <c r="C288" s="2">
+      <c r="C288">
         <v>169.4</v>
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289" s="2">
+      <c r="A289">
         <v>287000</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289">
         <v>171.67</v>
       </c>
-      <c r="C289" s="2">
+      <c r="C289">
         <v>169.73</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="2">
+      <c r="A290">
         <v>288000</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290">
         <v>170.58</v>
       </c>
-      <c r="C290" s="2">
+      <c r="C290">
         <v>170.91</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291" s="2">
+      <c r="A291">
         <v>289000</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291">
         <v>173.49</v>
       </c>
-      <c r="C291" s="2">
+      <c r="C291">
         <v>168.63</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" s="2">
+      <c r="A292">
         <v>290000</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292">
         <v>170.32</v>
       </c>
-      <c r="C292" s="2">
+      <c r="C292">
         <v>167.61</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="2">
+      <c r="A293">
         <v>291000</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <v>172.62</v>
       </c>
-      <c r="C293" s="2">
+      <c r="C293">
         <v>167.5</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="2">
+      <c r="A294">
         <v>292000</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294">
         <v>172.82</v>
       </c>
-      <c r="C294" s="2">
+      <c r="C294">
         <v>167.27</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="2">
+      <c r="A295">
         <v>293000</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295">
         <v>178.53</v>
       </c>
-      <c r="C295" s="2">
+      <c r="C295">
         <v>166.22</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296" s="2">
+      <c r="A296">
         <v>294000</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296">
         <v>179.6</v>
       </c>
-      <c r="C296" s="2">
+      <c r="C296">
         <v>166.84</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297" s="2">
+      <c r="A297">
         <v>295000</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <v>181.13</v>
       </c>
-      <c r="C297" s="2">
+      <c r="C297">
         <v>167.37</v>
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298" s="2">
+      <c r="A298">
         <v>296000</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298">
         <v>185.03</v>
       </c>
-      <c r="C298" s="2">
+      <c r="C298">
         <v>169.18</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="2">
+      <c r="A299">
         <v>297000</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299">
         <v>184.29</v>
       </c>
-      <c r="C299" s="2">
+      <c r="C299">
         <v>169.47</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="2">
+      <c r="A300">
         <v>298000</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300">
         <v>176.5</v>
       </c>
-      <c r="C300" s="2">
+      <c r="C300">
         <v>169.07</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="2">
+      <c r="A301">
         <v>299000</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301">
         <v>179.96</v>
       </c>
-      <c r="C301" s="2">
+      <c r="C301">
         <v>172.32</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="2">
+      <c r="A302">
         <v>300000</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <v>180.86</v>
       </c>
-      <c r="C302" s="2">
+      <c r="C302">
         <v>173.05</v>
       </c>
     </row>
